--- a/biology/Zoologie/Gracilinanus/Gracilinanus.xlsx
+++ b/biology/Zoologie/Gracilinanus/Gracilinanus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Gracilinanus est un genre de mammifères de la famille des Didelphidae.
 Ce genre de sarigues ou opossums comprend les espèces suivantes :
@@ -517,16 +529,18 @@
           <t>Liste des sous-espèces et espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (28 février 2019)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (28 février 2019) :
 Gracilinanus aceramarcae (Tate, 1931)
 Gracilinanus agilis (Burmeister, 1854)
 Gracilinanus dryas (Thomas, 1898)
 Gracilinanus emiliae (Thomas, 1909)
 Gracilinanus marica (Thomas, 1898)
 Gracilinanus microtarsus (Wagner, 1842)
-Selon Catalogue of Life                                   (28 février 2019)[4] et ITIS      (28 février 2019)[1] :
+Selon Catalogue of Life                                   (28 février 2019) et ITIS      (28 février 2019) :
 Gracilinanus aceramarcae (Tate, 1931)
 Gracilinanus agilis (Burmeister, 1854)
 Gracilinanus agricolai (Moojen, 1943)
@@ -536,7 +550,7 @@
 Gracilinanus ignitus Díaz, Flores, &amp; Barquez, 2002
 Gracilinanus marica (Thomas, 1898)
 Gracilinanus microtarsus (Wagner, 1842)
-Selon Mammal Species of the World (version 3, 2005)  (28 février 2019)[2] :
+Selon Mammal Species of the World (version 3, 2005)  (28 février 2019) :
 Gracilinanus aceramarcae
 Gracilinanus agilis
 Gracilinanus agricolai
@@ -548,14 +562,14 @@
 Gracilinanus microtarsus
 sous-espèce Gracilinanus microtarsus guahybae
 sous-espèce Gracilinanus microtarsus microtarsus
-Selon NCBI  (28 février 2019)[5] :
+Selon NCBI  (28 février 2019) :
 Gracilinanus aceramarcae
 Gracilinanus agilis
 Gracilinanus emiliae
 Gracilinanus marica (Thomas, 1898)
 Gracilinanus microtarsus
 Gracilinanus peruanus Marmosa agilis peruana Tate, 1931
-Selon Paleobiology Database                   (28 février 2019)[6] :
+Selon Paleobiology Database                   (28 février 2019) :
 Gracilinanus aceramarcae
 Gracilinanus agilis
 Gracilinanus emiliae
